--- a/Deliverables/Assignment1/TemplateQuestionariUtenti.xlsx
+++ b/Deliverables/Assignment1/TemplateQuestionariUtenti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Progetti GitHub\Progetto-IUM\Deliverables\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EF0F62-097A-41BD-B3A9-1693486C0900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF925F39-2312-4DCA-A13A-2F997B209250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BEHAVIOURABILITY" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Psicologo1" sheetId="3" r:id="rId5"/>
     <sheet name="Psicologo2" sheetId="8" r:id="rId6"/>
     <sheet name="MEDIE" sheetId="7" r:id="rId7"/>
-    <sheet name="TabRisultati" sheetId="6" r:id="rId8"/>
+    <sheet name="TabRisultati Psicologo" sheetId="6" r:id="rId8"/>
+    <sheet name="TabRisultati Studente" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="94">
   <si>
     <t>Decision Making</t>
   </si>
@@ -419,6 +420,12 @@
   <si>
     <t>PC / MOT</t>
   </si>
+  <si>
+    <t>Task 4 - Psicologo</t>
+  </si>
+  <si>
+    <t>Task 4 - Studente</t>
+  </si>
 </sst>
 </file>
 
@@ -427,7 +434,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -513,6 +520,26 @@
       <sz val="16"/>
       <color rgb="FF003366"/>
       <name val="Times"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -617,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -677,12 +704,6 @@
     <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -704,6 +725,26 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1122,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G33" sqref="E32:G33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1185,8 +1226,8 @@
       <c r="B4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H4">
@@ -1201,10 +1242,10 @@
       <c r="B5" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="26"/>
+      <c r="D5" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="24"/>
       <c r="H5">
         <f>IF(C5="X",1)+IF(D5="X",2)+IF(E5="X",3)+IF(F5="X",4)+IF(G5="X",5)</f>
         <v>2</v>
@@ -1231,12 +1272,12 @@
         <v>45</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H22" si="0">IF(C7="X",1)+IF(D7="X",2)+IF(E7="X",3)+IF(F7="X",4)+IF(G7="X",5)</f>
+        <f t="shared" ref="H7:H14" si="0">IF(C7="X",1)+IF(D7="X",2)+IF(E7="X",3)+IF(F7="X",4)+IF(G7="X",5)</f>
         <v>4</v>
       </c>
     </row>
@@ -1248,10 +1289,10 @@
         <v>47</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="25"/>
+      <c r="E8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="23"/>
       <c r="H8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1277,8 +1318,8 @@
       <c r="B10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="2"/>
@@ -1294,10 +1335,10 @@
       <c r="B11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="25"/>
+      <c r="C11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="23"/>
       <c r="E11" s="2"/>
       <c r="H11">
         <f t="shared" si="0"/>
@@ -1324,10 +1365,10 @@
       <c r="B13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="25"/>
+      <c r="D13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="23"/>
       <c r="H13">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1341,8 +1382,8 @@
       <c r="B14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H14">
@@ -1384,11 +1425,11 @@
       <c r="B18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:H23" si="1">IF(C18="X",1)+IF(D18="X",2)+IF(E18="X",3)+IF(F18="X",4)+IF(G18="X",5)</f>
+        <f t="shared" ref="H18" si="1">IF(C18="X",1)+IF(D18="X",2)+IF(E18="X",3)+IF(F18="X",4)+IF(G18="X",5)</f>
         <v>2</v>
       </c>
     </row>
@@ -1412,11 +1453,11 @@
       <c r="B20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:H23" si="2">IF(C20="X",1)+IF(D20="X",2)+IF(E20="X",3)+IF(F20="X",4)+IF(G20="X",5)</f>
+        <f t="shared" ref="H20" si="2">IF(C20="X",1)+IF(D20="X",2)+IF(E20="X",3)+IF(F20="X",4)+IF(G20="X",5)</f>
         <v>3</v>
       </c>
     </row>
@@ -1440,7 +1481,7 @@
       <c r="B22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H22">
@@ -1458,7 +1499,7 @@
       </c>
       <c r="C23"/>
       <c r="D23"/>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F23"/>
@@ -1513,9 +1554,9 @@
       <c r="B27" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25" t="s">
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H27">
@@ -1530,11 +1571,11 @@
       <c r="B28" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
+      <c r="D28" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
       <c r="H28">
         <f>IF(C28="X",1)+IF(D28="X",2)+IF(E28="X",3)+IF(F28="X",4)+IF(G28="X",5)</f>
         <v>2</v>
@@ -1588,11 +1629,11 @@
       <c r="B32" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
+      <c r="E32" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
       <c r="H32">
         <f t="shared" ref="H32" si="5">IF(C32="X",1)+IF(D32="X",2)+IF(E32="X",3)+IF(F32="X",4)+IF(G32="X",5)</f>
         <v>3</v>
@@ -1606,9 +1647,9 @@
       <c r="B33" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25" t="s">
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H33">
@@ -1627,7 +1668,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1641,8 +1682,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="29"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -1665,7 +1706,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="21" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1688,11 +1729,11 @@
       <c r="B4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="25"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="23"/>
       <c r="H4">
         <f>IF(C4="X",1)+IF(D4="X",2)+IF(E4="X",3)+IF(F4="X",4)+IF(G4="X",5)</f>
         <v>2</v>
@@ -1705,9 +1746,9 @@
       <c r="B5" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H5">
@@ -1735,12 +1776,12 @@
       <c r="B7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H22" si="0">IF(C7="X",1)+IF(D7="X",2)+IF(E7="X",3)+IF(F7="X",4)+IF(G7="X",5)</f>
+        <f t="shared" ref="H7:H14" si="0">IF(C7="X",1)+IF(D7="X",2)+IF(E7="X",3)+IF(F7="X",4)+IF(G7="X",5)</f>
         <v>4</v>
       </c>
     </row>
@@ -1751,8 +1792,8 @@
       <c r="B8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H8">
@@ -1780,9 +1821,9 @@
       <c r="B10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H10">
@@ -1797,11 +1838,11 @@
       <c r="B11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="E11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
       <c r="H11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1827,10 +1868,10 @@
       <c r="B13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="25"/>
+      <c r="E13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="23"/>
       <c r="H13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1844,8 +1885,8 @@
       <c r="B14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25" t="s">
+      <c r="E14" s="23"/>
+      <c r="F14" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H14">
@@ -1896,11 +1937,11 @@
       <c r="B18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:H23" si="1">IF(C18="X",1)+IF(D18="X",2)+IF(E18="X",3)+IF(F18="X",4)+IF(G18="X",5)</f>
+        <f t="shared" ref="H18" si="1">IF(C18="X",1)+IF(D18="X",2)+IF(E18="X",3)+IF(F18="X",4)+IF(G18="X",5)</f>
         <v>4</v>
       </c>
     </row>
@@ -1924,11 +1965,11 @@
       <c r="B20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:H23" si="2">IF(C20="X",1)+IF(D20="X",2)+IF(E20="X",3)+IF(F20="X",4)+IF(G20="X",5)</f>
+        <f t="shared" ref="H20" si="2">IF(C20="X",1)+IF(D20="X",2)+IF(E20="X",3)+IF(F20="X",4)+IF(G20="X",5)</f>
         <v>3</v>
       </c>
     </row>
@@ -1952,7 +1993,7 @@
       <c r="B22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H22">
@@ -1968,7 +2009,7 @@
       <c r="B23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H23">
@@ -2019,7 +2060,7 @@
       <c r="B27" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H27">
@@ -2034,7 +2075,7 @@
       <c r="B28" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H28">
@@ -2062,7 +2103,7 @@
       <c r="B30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H30">
@@ -2090,7 +2131,7 @@
       <c r="B32" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H32">
@@ -2106,7 +2147,7 @@
       <c r="B33" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H33">
@@ -2124,7 +2165,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2185,13 +2226,13 @@
       <c r="B4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="C4" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
       <c r="H4">
         <f>IF(C4="X",1)+IF(D4="X",2)+IF(E4="X",3)+IF(F4="X",4)+IF(G4="X",5)</f>
         <v>1</v>
@@ -2204,11 +2245,11 @@
       <c r="B5" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H5">
@@ -2221,11 +2262,11 @@
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
     </row>
@@ -2236,15 +2277,15 @@
       <c r="B7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="23"/>
       <c r="H7">
-        <f t="shared" ref="H7:H22" si="0">IF(C7="X",1)+IF(D7="X",2)+IF(E7="X",3)+IF(F7="X",4)+IF(G7="X",5)</f>
+        <f t="shared" ref="H7:H14" si="0">IF(C7="X",1)+IF(D7="X",2)+IF(E7="X",3)+IF(F7="X",4)+IF(G7="X",5)</f>
         <v>4</v>
       </c>
     </row>
@@ -2255,13 +2296,13 @@
       <c r="B8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
       <c r="H8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2272,11 +2313,11 @@
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
@@ -2287,11 +2328,11 @@
       <c r="B10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H10">
@@ -2306,13 +2347,13 @@
       <c r="B11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
       <c r="H11">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2323,11 +2364,11 @@
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
@@ -2338,13 +2379,13 @@
       <c r="B13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="C13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
       <c r="H13">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2358,13 +2399,13 @@
       <c r="B14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
       <c r="H14">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2373,11 +2414,11 @@
     <row r="15" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
     </row>
@@ -2386,11 +2427,11 @@
       <c r="B16" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
     </row>
@@ -2398,11 +2439,11 @@
       <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
     </row>
@@ -2413,15 +2454,15 @@
       <c r="B18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
       <c r="H18">
-        <f t="shared" ref="H18:H23" si="1">IF(C18="X",1)+IF(D18="X",2)+IF(E18="X",3)+IF(F18="X",4)+IF(G18="X",5)</f>
+        <f t="shared" ref="H18" si="1">IF(C18="X",1)+IF(D18="X",2)+IF(E18="X",3)+IF(F18="X",4)+IF(G18="X",5)</f>
         <v>3</v>
       </c>
     </row>
@@ -2430,11 +2471,11 @@
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
     </row>
@@ -2445,15 +2486,15 @@
       <c r="B20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="25"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="23"/>
       <c r="H20">
-        <f t="shared" ref="H20:H23" si="2">IF(C20="X",1)+IF(D20="X",2)+IF(E20="X",3)+IF(F20="X",4)+IF(G20="X",5)</f>
+        <f t="shared" ref="H20" si="2">IF(C20="X",1)+IF(D20="X",2)+IF(E20="X",3)+IF(F20="X",4)+IF(G20="X",5)</f>
         <v>4</v>
       </c>
     </row>
@@ -2462,11 +2503,11 @@
       <c r="B21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
     </row>
@@ -2477,13 +2518,13 @@
       <c r="B22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="25"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="23"/>
       <c r="H22">
         <f t="shared" ref="H22:H23" si="3">IF(C22="X",1)+IF(D22="X",2)+IF(E22="X",3)+IF(F22="X",4)+IF(G22="X",5)</f>
         <v>4</v>
@@ -2497,11 +2538,11 @@
       <c r="B23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H23">
@@ -2512,11 +2553,11 @@
     <row r="24" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21"/>
       <c r="B24" s="20"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
     </row>
@@ -2525,11 +2566,11 @@
       <c r="B25" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
     </row>
@@ -2537,11 +2578,11 @@
       <c r="B26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
     </row>
@@ -2552,11 +2593,11 @@
       <c r="B27" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25" t="s">
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H27">
@@ -2571,13 +2612,13 @@
       <c r="B28" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="25"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="23"/>
       <c r="H28">
         <f>IF(C28="X",1)+IF(D28="X",2)+IF(E28="X",3)+IF(F28="X",4)+IF(G28="X",5)</f>
         <v>4</v>
@@ -2588,11 +2629,11 @@
       <c r="B29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
     </row>
@@ -2603,11 +2644,11 @@
       <c r="B30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25" t="s">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H30">
@@ -2620,11 +2661,11 @@
       <c r="B31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
     </row>
@@ -2635,13 +2676,13 @@
       <c r="B32" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
       <c r="H32">
         <f>IF(C32="X",1)+IF(D32="X",2)+IF(E32="X",3)+IF(F32="X",4)+IF(G32="X",5)</f>
         <v>3</v>
@@ -2655,11 +2696,11 @@
       <c r="B33" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25" t="s">
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H33">
@@ -2676,8 +2717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2748,11 +2789,11 @@
       <c r="B4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H4">
@@ -2765,11 +2806,11 @@
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
     </row>
@@ -2780,13 +2821,13 @@
       <c r="B6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="25"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="23"/>
       <c r="H6">
         <f t="shared" ref="H6:H9" si="0">IF(C6="X",1)+IF(D6="X",2)+IF(E6="X",3)+IF(F6="X",4)+IF(G6="X",5)</f>
         <v>4</v>
@@ -2797,11 +2838,11 @@
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
     </row>
@@ -2812,13 +2853,13 @@
       <c r="B8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="23"/>
       <c r="H8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2832,13 +2873,13 @@
       <c r="B9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
       <c r="H9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2846,22 +2887,22 @@
     </row>
     <row r="10" spans="1:9" s="21" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="20"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
     </row>
@@ -2870,11 +2911,11 @@
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
@@ -2885,13 +2926,13 @@
       <c r="B13" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
       <c r="H13">
         <f>IF(C13="X",1)+IF(D13="X",2)+IF(E13="X",3)+IF(F13="X",4)+IF(G13="X",5)</f>
         <v>3</v>
@@ -2904,13 +2945,13 @@
       <c r="B14" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
       <c r="H14">
         <f>IF(C14="X",1)+IF(D14="X",2)+IF(E14="X",3)+IF(F14="X",4)+IF(G14="X",5)</f>
         <v>3</v>
@@ -2921,11 +2962,11 @@
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
     </row>
@@ -2936,13 +2977,13 @@
       <c r="B16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
       <c r="H16">
         <f t="shared" ref="H16" si="1">IF(C16="X",1)+IF(D16="X",2)+IF(E16="X",3)+IF(F16="X",4)+IF(G16="X",5)</f>
         <v>2</v>
@@ -2953,11 +2994,11 @@
       <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
     </row>
@@ -2968,13 +3009,13 @@
       <c r="B18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
       <c r="H18">
         <f t="shared" ref="H18" si="2">IF(C18="X",1)+IF(D18="X",2)+IF(E18="X",3)+IF(F18="X",4)+IF(G18="X",5)</f>
         <v>3</v>
@@ -2988,13 +3029,13 @@
       <c r="B19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
       <c r="H19">
         <f>IF(C19="X",1)+IF(D19="X",2)+IF(E19="X",3)+IF(F19="X",4)+IF(G19="X",5)</f>
         <v>3</v>
@@ -3082,11 +3123,11 @@
       <c r="B4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H4">
@@ -3099,11 +3140,11 @@
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
     </row>
@@ -3114,11 +3155,11 @@
       <c r="B6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H6">
@@ -3131,11 +3172,11 @@
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
     </row>
@@ -3146,13 +3187,13 @@
       <c r="B8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="23"/>
       <c r="H8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3166,11 +3207,11 @@
       <c r="B9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H9">
@@ -3180,22 +3221,22 @@
     </row>
     <row r="10" spans="1:9" s="21" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="20"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
     </row>
@@ -3204,11 +3245,11 @@
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
@@ -3219,11 +3260,11 @@
       <c r="B13" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H13">
@@ -3238,13 +3279,13 @@
       <c r="B14" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="25"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="23"/>
       <c r="H14">
         <f>IF(C14="X",1)+IF(D14="X",2)+IF(E14="X",3)+IF(F14="X",4)+IF(G14="X",5)</f>
         <v>4</v>
@@ -3255,11 +3296,11 @@
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
     </row>
@@ -3270,11 +3311,11 @@
       <c r="B16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H16">
@@ -3287,11 +3328,11 @@
       <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
     </row>
@@ -3302,13 +3343,13 @@
       <c r="B18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="25"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="23"/>
       <c r="H18">
         <f t="shared" ref="H18" si="2">IF(C18="X",1)+IF(D18="X",2)+IF(E18="X",3)+IF(F18="X",4)+IF(G18="X",5)</f>
         <v>4</v>
@@ -3322,13 +3363,13 @@
       <c r="B19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="25"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="23"/>
       <c r="H19">
         <f>IF(C19="X",1)+IF(D19="X",2)+IF(E19="X",3)+IF(F19="X",4)+IF(G19="X",5)</f>
         <v>4</v>
@@ -3341,10 +3382,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3388,8 +3429,8 @@
         <v>44</v>
       </c>
       <c r="H2" s="10">
-        <f>AVERAGE(Studente1!H4,Studente2!H3,Studente3!H3,)</f>
-        <v>1.5</v>
+        <f>AVERAGE(Studente1!H4,Studente2!H4,Studente3!H4)</f>
+        <v>2</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>32</v>
@@ -3406,8 +3447,8 @@
         <v>43</v>
       </c>
       <c r="H3" s="10">
-        <f>AVERAGE(Studente1!H5,Studente2!H4,Studente3!H4,)</f>
-        <v>1.25</v>
+        <f>AVERAGE(Studente1!H5,Studente2!H4,Studente3!H4)</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>32</v>
@@ -3417,7 +3458,7 @@
       <c r="A4" s="5"/>
       <c r="H4" s="14">
         <f>AVERAGE(H2:H3)</f>
-        <v>1.375</v>
+        <v>1.8333333333333335</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>42</v>
@@ -3434,8 +3475,8 @@
         <v>45</v>
       </c>
       <c r="H5" s="10">
-        <f>AVERAGE(Studente1!H7,Studente2!H9,Studente3!H9,)</f>
-        <v>2</v>
+        <f>AVERAGE(Studente1!H7,Studente2!H7,Studente3!H7)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3446,15 +3487,15 @@
         <v>47</v>
       </c>
       <c r="H6" s="10">
-        <f>AVERAGE(Studente1!H8,Studente2!H10,Studente3!H10,)</f>
-        <v>3.25</v>
+        <f>AVERAGE(Studente1!H8,Studente2!H8,Studente3!H8)</f>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="H7" s="14">
         <f>AVERAGE(H5:H6)</f>
-        <v>2.625</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>19</v>
@@ -3468,8 +3509,8 @@
         <v>46</v>
       </c>
       <c r="H8" s="10">
-        <f>AVERAGE(Studente1!H10,Studente2!H10,Studente3!H10,)</f>
-        <v>3</v>
+        <f>AVERAGE(Studente1!H10,Studente2!H10,Studente3!H10)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3480,15 +3521,15 @@
         <v>48</v>
       </c>
       <c r="H9" s="10">
-        <f>AVERAGE(Studente1!H11,Studente2!H11,Studente3!H11,)</f>
-        <v>1.5</v>
+        <f>AVERAGE(Studente1!H11,Studente2!H11,Studente3!H11)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="H10" s="14">
         <f>AVERAGE(H8:H9)</f>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>22</v>
@@ -3502,8 +3543,8 @@
         <v>49</v>
       </c>
       <c r="H11" s="10">
-        <f>AVERAGE(Studente1!H13,Studente2!H13,Studente3!H13,)</f>
-        <v>1.5</v>
+        <f>AVERAGE(Studente1!H13,Studente2!H13,Studente3!H13)</f>
+        <v>2</v>
       </c>
       <c r="I11" s="6"/>
     </row>
@@ -3524,7 +3565,7 @@
       <c r="B13" s="7"/>
       <c r="H13" s="14">
         <f>AVERAGE(H11:H12)</f>
-        <v>2.416666666666667</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3535,15 +3576,15 @@
         <v>55</v>
       </c>
       <c r="H14" s="10">
-        <f>AVERAGE(Psicologo1!H4,Psicologo2!H4,)</f>
-        <v>3.3333333333333335</v>
+        <f>AVERAGE(Psicologo1!H4,Psicologo2!H4)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="H15" s="14">
         <f>AVERAGE(H14)</f>
-        <v>3.3333333333333335</v>
+        <v>5</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>13</v>
@@ -3557,15 +3598,15 @@
         <v>54</v>
       </c>
       <c r="H16" s="10">
-        <f>AVERAGE(Psicologo1!H6,Psicologo2!H6,)</f>
-        <v>3</v>
+        <f>AVERAGE(Psicologo1!H6,Psicologo2!H6)</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="H17" s="14">
         <f>AVERAGE(H16:H16)</f>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>19</v>
@@ -3579,21 +3620,21 @@
         <v>78</v>
       </c>
       <c r="H18" s="10">
-        <f>AVERAGE(Psicologo1!H17,Psicologo2!H17,)</f>
-        <v>0</v>
+        <f>AVERAGE(Psicologo1!H18,Psicologo2!H18)</f>
+        <v>3.5</v>
       </c>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>79</v>
       </c>
       <c r="H19" s="10">
-        <f>AVERAGE(Psicologo1!H18,Psicologo2!H18,)</f>
-        <v>2.3333333333333335</v>
+        <f>AVERAGE(Psicologo1!H19,Psicologo2!H19)</f>
+        <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3601,7 +3642,7 @@
       <c r="B20" s="7"/>
       <c r="H20" s="14">
         <f>AVERAGE(H18:H19)</f>
-        <v>1.1666666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>25</v>
@@ -3615,8 +3656,8 @@
         <v>61</v>
       </c>
       <c r="H21" s="10">
-        <f>AVERAGE(Studente1!H17,Studente2!H17,Studente3!H17,)</f>
-        <v>0</v>
+        <f>AVERAGE(Studente1!H18,Studente2!H18,Studente3!H18)</f>
+        <v>3</v>
       </c>
       <c r="I21" s="6"/>
     </row>
@@ -3625,7 +3666,7 @@
       <c r="B22" s="7"/>
       <c r="H22" s="14">
         <f>AVERAGE(H21)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>13</v>
@@ -3639,8 +3680,8 @@
         <v>67</v>
       </c>
       <c r="H23" s="10">
-        <f>AVERAGE(Studente1!H17,Studente2!H17,Studente3!H17,)</f>
-        <v>0</v>
+        <f>AVERAGE(Studente1!H20,Studente2!H20,Studente3!H20)</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="I23" s="6"/>
     </row>
@@ -3649,7 +3690,7 @@
       <c r="B24" s="7"/>
       <c r="H24" s="14">
         <f>AVERAGE(H23)</f>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>22</v>
@@ -3663,8 +3704,8 @@
         <v>64</v>
       </c>
       <c r="H25" s="10">
-        <f>AVERAGE(Studente1!H21,Studente2!H21,Studente3!H21,)</f>
-        <v>0</v>
+        <f>AVERAGE(Studente1!H22,Studente2!H22,Studente3!H22)</f>
+        <v>3.6666666666666665</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3675,17 +3716,19 @@
         <v>65</v>
       </c>
       <c r="H26" s="10">
-        <f>AVERAGE(Studente1!H22,Studente2!H22,Studente3!H22,)</f>
-        <v>2.75</v>
+        <f>AVERAGE(Studente1!H23,Studente2!H23,Studente3!H23)</f>
+        <v>4</v>
       </c>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
+      <c r="A27" s="38" t="s">
+        <v>93</v>
+      </c>
       <c r="B27" s="7"/>
       <c r="H27" s="14">
         <f>AVERAGE(H25:H26)</f>
-        <v>1.375</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>25</v>
@@ -3699,8 +3742,8 @@
         <v>71</v>
       </c>
       <c r="H28" s="10">
-        <f>AVERAGE(Studente1!H25,Studente2!H25,Studente3!H25,Psicologo1!H12,Psicologo2!H12,)</f>
-        <v>0</v>
+        <f>AVERAGE(Studente1!H27,Studente2!H27,Studente3!H27,Psicologo1!H13,Psicologo2!H13)</f>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3711,8 +3754,8 @@
         <v>73</v>
       </c>
       <c r="H29" s="10">
-        <f>AVERAGE(Studente1!H26,Studente2!H26,Studente3!H26,Psicologo1!H13,Psicologo2!H13,)</f>
-        <v>2.6666666666666665</v>
+        <f>AVERAGE(Studente1!H28,Studente2!H28,Studente3!H28,Psicologo1!H14,Psicologo2!H14)</f>
+        <v>3.6</v>
       </c>
       <c r="I29" s="6"/>
     </row>
@@ -3721,7 +3764,7 @@
       <c r="B30" s="7"/>
       <c r="H30" s="14">
         <f>AVERAGE(H28:H29)</f>
-        <v>1.3333333333333333</v>
+        <v>4</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>13</v>
@@ -3735,8 +3778,8 @@
         <v>75</v>
       </c>
       <c r="H31" s="10">
-        <f>AVERAGE(Studente1!H28,Studente2!H28,Studente3!H28,Psicologo1!H15,Psicologo2!H15,)</f>
-        <v>2.75</v>
+        <f>AVERAGE(Studente1!H30,Studente2!H30,Studente3!H30,Psicologo1!H16,Psicologo2!H16)</f>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3744,7 +3787,7 @@
       <c r="B32" s="7"/>
       <c r="H32" s="14">
         <f>AVERAGE(H31:H31)</f>
-        <v>2.75</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>19</v>
@@ -3758,8 +3801,8 @@
         <v>78</v>
       </c>
       <c r="H33" s="10">
-        <f>AVERAGE(Studente1!H30,Studente2!H30,Studente3!H30,Psicologo1!H17,Psicologo2!H17,)</f>
-        <v>3.75</v>
+        <f>AVERAGE(Studente1!H32,Studente2!H32,Studente3!H32,Psicologo1!H18,Psicologo2!H18)</f>
+        <v>3.4</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3770,8 +3813,8 @@
         <v>79</v>
       </c>
       <c r="H34" s="10">
-        <f>AVERAGE(Studente1!H31,Studente2!H31,Studente3!H31,Psicologo1!H18,Psicologo2!H18,)</f>
-        <v>2.3333333333333335</v>
+        <f>AVERAGE(Studente1!H33,Studente2!H33,Studente3!H33,Psicologo1!H19,Psicologo2!H19)</f>
+        <v>4.2</v>
       </c>
       <c r="I34" s="6"/>
     </row>
@@ -3780,9 +3823,109 @@
       <c r="B35" s="7"/>
       <c r="H35" s="14">
         <f>AVERAGE(H33:H34)</f>
-        <v>3.041666666666667</v>
+        <v>3.8</v>
       </c>
       <c r="J35" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="36">
+        <f>AVERAGE(Psicologo1!H13,Psicologo2!H13)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="10">
+        <f>AVERAGE(Psicologo1!H14,Psicologo2!H14)</f>
+        <v>3.5</v>
+      </c>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5"/>
+      <c r="B39" s="7"/>
+      <c r="H39" s="14">
+        <f>AVERAGE(H37:H38)</f>
+        <v>3.75</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="10">
+        <f>AVERAGE(Psicologo1!H16,Psicologo2!H16)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5"/>
+      <c r="B41" s="7"/>
+      <c r="H41" s="14">
+        <f>AVERAGE(H40:H40)</f>
+        <v>3.5</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="10">
+        <f>AVERAGE(Psicologo1!H18,Psicologo2!H18)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" s="10">
+        <f>AVERAGE(Psicologo1!H19,Psicologo2!H19)</f>
+        <v>3.5</v>
+      </c>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5"/>
+      <c r="B44" s="7"/>
+      <c r="H44" s="14">
+        <f>AVERAGE(H42:H43)</f>
+        <v>3.5</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3794,10 +3937,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3824,78 +3967,133 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="13">
+        <f>MEDIE!H15</f>
+        <v>5</v>
+      </c>
+      <c r="C2" s="31">
+        <f>MEDIE!H17</f>
+        <v>4.5</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="33">
+        <f>MEDIE!H20</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="34">
+        <f>MEDIE!H39</f>
+        <v>3.75</v>
+      </c>
+      <c r="C3" s="34">
+        <f>MEDIE!H41</f>
+        <v>3.5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="34">
+        <f>MEDIE!H44</f>
+        <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E6B770-81BF-458A-84B4-438063C875EE}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="22">
         <f>MEDIE!H4</f>
-        <v>1.375</v>
-      </c>
-      <c r="C2" s="22">
+        <v>1.8333333333333335</v>
+      </c>
+      <c r="C2" s="32">
         <f>MEDIE!H7</f>
-        <v>2.625</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D2" s="15">
         <f>MEDIE!H10</f>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="E2" s="15">
         <f>MEDIE!H13</f>
-        <v>2.416666666666667</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="13">
-        <f>MEDIE!H15</f>
+      <c r="A3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="22">
+        <f>MEDIE!H22</f>
+        <v>3</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="32">
+        <f>MEDIE!H24</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="C3" s="24">
-        <f>MEDIE!H17</f>
-        <v>3</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="23">
-        <f>MEDIE!H20</f>
-        <v>1.1666666666666667</v>
+      <c r="E3" s="32">
+        <f>MEDIE!H27</f>
+        <v>3.833333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="22">
-        <f>MEDIE!H22</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="22">
-        <f>MEDIE!H24</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="22">
-        <f>MEDIE!H27</f>
-        <v>1.375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B4" s="35">
         <f>MEDIE!H30</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="C5" s="13">
+        <v>4</v>
+      </c>
+      <c r="C4" s="35">
         <f>MEDIE!H32</f>
-        <v>2.75</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="35">
         <f>MEDIE!H35</f>
-        <v>3.041666666666667</v>
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>
